--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>https://demoqa.com/</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>TextBox Page URL</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/text-box</t>
   </si>
 </sst>
 </file>
@@ -400,21 +406,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -425,7 +431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -436,7 +442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -445,6 +451,17 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -460,15 +477,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -479,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -490,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -501,7 +518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -512,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>

--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,14 +473,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>

--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7515" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>https://demoqa.com/</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>https://demoqa.com/text-box</t>
+  </si>
+  <si>
+    <t>CheckBoxPAge URL</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/checkbox</t>
   </si>
 </sst>
 </file>
@@ -406,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +470,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -473,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>https://demoqa.com/</t>
   </si>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +471,9 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>

--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>https://demoqa.com/</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>https://demoqa.com/checkbox</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RadioButtonPage URL</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/radio-button</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/webtables</t>
+  </si>
+  <si>
+    <t>WebTablesPage URL</t>
   </si>
 </sst>
 </file>
@@ -412,17 +430,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -479,6 +497,28 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -433,18 +433,18 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -488,7 +488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -499,7 +499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -510,7 +510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -534,15 +534,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -553,7 +553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>

--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
     <sheet name="Credentials" sheetId="2" r:id="rId2"/>
+    <sheet name="Message Text" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>https://demoqa.com/</t>
   </si>
@@ -101,6 +102,45 @@
   </si>
   <si>
     <t>WebTablesPage URL</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ButtonsPAge URL</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/buttons</t>
+  </si>
+  <si>
+    <t>Message Name</t>
+  </si>
+  <si>
+    <t>Message Text</t>
+  </si>
+  <si>
+    <t>Yes Radio Button Message</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Click Me Message</t>
+  </si>
+  <si>
+    <t>You have done a dynamic click</t>
+  </si>
+  <si>
+    <t>Double Click Me Message</t>
+  </si>
+  <si>
+    <t>You have done a double click</t>
+  </si>
+  <si>
+    <t>Rigt Click Message</t>
+  </si>
+  <si>
+    <t>You have done a right click</t>
   </si>
 </sst>
 </file>
@@ -430,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,6 +559,17 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -603,4 +654,121 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="5.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>https://demoqa.com/</t>
   </si>
@@ -74,24 +74,15 @@
     <t>4</t>
   </si>
   <si>
-    <t>TextBox Page URL</t>
-  </si>
-  <si>
     <t>https://demoqa.com/text-box</t>
   </si>
   <si>
-    <t>CheckBoxPAge URL</t>
-  </si>
-  <si>
     <t>https://demoqa.com/checkbox</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>RadioButtonPage URL</t>
-  </si>
-  <si>
     <t>https://demoqa.com/radio-button</t>
   </si>
   <si>
@@ -101,15 +92,9 @@
     <t>https://demoqa.com/webtables</t>
   </si>
   <si>
-    <t>WebTablesPage URL</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>ButtonsPAge URL</t>
-  </si>
-  <si>
     <t>https://demoqa.com/buttons</t>
   </si>
   <si>
@@ -141,6 +126,33 @@
   </si>
   <si>
     <t>You have done a right click</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/links</t>
+  </si>
+  <si>
+    <t>LinksPageURL</t>
+  </si>
+  <si>
+    <t>Text Box Page URL</t>
+  </si>
+  <si>
+    <t>Buttons Page URL</t>
+  </si>
+  <si>
+    <t>Web Tables Page URL</t>
+  </si>
+  <si>
+    <t>Radio Button Page URL</t>
+  </si>
+  <si>
+    <t>Check Box Page URL</t>
+  </si>
+  <si>
+    <t>Links Page URL</t>
   </si>
 </sst>
 </file>
@@ -470,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,10 +534,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -533,43 +545,54 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -697,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -708,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -719,10 +742,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -730,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -741,10 +764,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">

--- a/TextBook.xlsx
+++ b/TextBook.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>https://demoqa.com/</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>https://demoqa.com/links</t>
-  </si>
-  <si>
-    <t>LinksPageURL</t>
   </si>
   <si>
     <t>Text Box Page URL</t>
@@ -485,7 +482,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +511,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -534,7 +531,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -545,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -556,7 +553,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -567,7 +564,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
@@ -578,7 +575,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -589,13 +586,16 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
